--- a/Java/Java Basics.xlsx
+++ b/Java/Java Basics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>S.No.</t>
   </si>
@@ -75,19 +75,53 @@
   </si>
   <si>
     <t>Oops- What are constructors? How constructors work? Properties of constructors?</t>
+  </si>
+  <si>
+    <t>What is singleton? What is a singleton design Pattern?</t>
+  </si>
+  <si>
+    <t>OOPs- What is polymorphism? Difference between runtime and compile time polymorphism?</t>
+  </si>
+  <si>
+    <t>Difference between equals() and == in Java?</t>
+  </si>
+  <si>
+    <t>Why are strings immutable in Java.</t>
+  </si>
+  <si>
+    <t>How garbage collection happens in Java?</t>
+  </si>
+  <si>
+    <t>How memory allocation works in Strings.</t>
+  </si>
+  <si>
+    <t>Difference between String s = '123' and String s = new String('123')</t>
+  </si>
+  <si>
+    <t>What are equals and Hashcode methods?</t>
+  </si>
+  <si>
+    <t>https://javaranch.com/journal/2002/10/equalhash.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,10 +141,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -118,8 +156,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -489,43 +529,89 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="75">
-      <c r="B15" t="s">
+    <row r="16" spans="1:3" ht="75">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C21" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Java/Java Basics.xlsx
+++ b/Java/Java Basics.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interview Questions" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>S.No.</t>
   </si>
@@ -103,12 +103,15 @@
   <si>
     <t>https://javaranch.com/journal/2002/10/equalhash.html</t>
   </si>
+  <si>
+    <t>How does a HashMap works?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +167,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -210,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,9 +253,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,6 +305,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,21 +498,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="105.140625" customWidth="1"/>
     <col min="3" max="3" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -481,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -489,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -497,62 +544,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="75">
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -560,27 +607,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -588,41 +635,47 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1"/>
+    <hyperlink ref="C21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Java/Java Basics.xlsx
+++ b/Java/Java Basics.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Interview Questions" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>S.No.</t>
   </si>
@@ -106,12 +106,15 @@
   <si>
     <t>How does a HashMap works?</t>
   </si>
+  <si>
+    <t>What is String interning?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,27 +256,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,24 +290,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,21 +465,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="105.140625" customWidth="1"/>
     <col min="3" max="3" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -528,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -536,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -544,62 +511,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="75">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -607,27 +574,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -635,47 +602,52 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C21" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
